--- a/2025-1/UTI.xlsx
+++ b/2025-1/UTI.xlsx
@@ -22797,7 +22797,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>E/P TASA 310</t>
+          <t>EP TASA 310</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -22864,7 +22864,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>E/P TASA 310</t>
+          <t>EP TASA 310</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -22931,7 +22931,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>E/P TASA 310</t>
+          <t>EP TASA 310</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -22998,7 +22998,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>E/P TASA 310</t>
+          <t>EP TASA 310</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -23065,7 +23065,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>E/P TASA 310</t>
+          <t>EP TASA 310</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -23132,7 +23132,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>E/P TASA 310</t>
+          <t>EP TASA 310</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -23199,7 +23199,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>E/P TASA 310</t>
+          <t>EP TASA 310</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -23266,7 +23266,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>E/P TASA 310</t>
+          <t>EP TASA 310</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -23333,7 +23333,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>E/P TASA 310</t>
+          <t>EP TASA 310</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -23400,7 +23400,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>E/P TASA 310</t>
+          <t>EP TASA 310</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -23467,7 +23467,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>E/P TASA 310</t>
+          <t>EP TASA 310</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -23534,7 +23534,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>E/P TASA 310</t>
+          <t>EP TASA 310</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -23601,7 +23601,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>E/P TASA 310</t>
+          <t>EP TASA 310</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -23668,7 +23668,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>E/P TASA 310</t>
+          <t>EP TASA 310</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -23735,7 +23735,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>E/P TASA 310</t>
+          <t>EP TASA 310</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -23802,7 +23802,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>E/P TASA 310</t>
+          <t>EP TASA 310</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -23869,7 +23869,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>E/P TASA 310</t>
+          <t>EP TASA 310</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -23936,7 +23936,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>E/P TASA 310</t>
+          <t>EP TASA 310</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -24003,7 +24003,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>E/P TASA 310</t>
+          <t>EP TASA 310</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -24070,7 +24070,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>E/P TASA 310</t>
+          <t>EP TASA 310</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -24137,7 +24137,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>E/P TASA 310</t>
+          <t>EP TASA 310</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -24204,7 +24204,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>E/P TASA 310</t>
+          <t>EP TASA 310</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -24271,7 +24271,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>E/P TASA 310</t>
+          <t>EP TASA 310</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -24338,7 +24338,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>E/P TASA 310</t>
+          <t>EP TASA 310</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -24405,7 +24405,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>E/P TASA 310</t>
+          <t>EP TASA 310</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -24472,7 +24472,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>E/P TASA 310</t>
+          <t>EP TASA 310</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -24539,7 +24539,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>E/P TASA 310</t>
+          <t>EP TASA 310</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -24606,7 +24606,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>E/P TASA 310</t>
+          <t>EP TASA 310</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -24673,7 +24673,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>E/P TASA 310</t>
+          <t>EP TASA 310</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -24740,7 +24740,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>E/P TASA 310</t>
+          <t>EP TASA 310</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -24807,7 +24807,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>E/P TASA 310</t>
+          <t>EP TASA 310</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -24874,7 +24874,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>E/P TASA 310</t>
+          <t>EP TASA 310</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -24941,7 +24941,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>E/P TASA 310</t>
+          <t>EP TASA 310</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
@@ -25008,7 +25008,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>E/P TASA 310</t>
+          <t>EP TASA 310</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -25075,7 +25075,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>E/P TASA 310</t>
+          <t>EP TASA 310</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -25142,7 +25142,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>E/P TASA 310</t>
+          <t>EP TASA 310</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -25209,7 +25209,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>E/P TASA 310</t>
+          <t>EP TASA 310</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -25276,7 +25276,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>E/P TASA 310</t>
+          <t>EP TASA 310</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -25343,7 +25343,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>E/P TASA 310</t>
+          <t>EP TASA 310</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -25410,7 +25410,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>E/P TASA 310</t>
+          <t>EP TASA 310</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -25477,7 +25477,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>E/P TASA 310</t>
+          <t>EP TASA 310</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -25544,7 +25544,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>E/P TASA 310</t>
+          <t>EP TASA 310</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -25611,7 +25611,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>E/P TASA 310</t>
+          <t>EP TASA 310</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -25678,7 +25678,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>E/P TASA 310</t>
+          <t>EP TASA 310</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -25745,7 +25745,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>E/P TASA 310</t>
+          <t>EP TASA 310</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -25812,7 +25812,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>E/P TASA 310</t>
+          <t>EP TASA 310</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -25879,7 +25879,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>E/P TASA 310</t>
+          <t>EP TASA 310</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -25946,7 +25946,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>E/P TASA 310</t>
+          <t>EP TASA 310</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
@@ -26013,7 +26013,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>E/P TASA 310</t>
+          <t>EP TASA 310</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -26080,7 +26080,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>E/P TASA 310</t>
+          <t>EP TASA 310</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
@@ -26147,7 +26147,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>E/P TASA 310</t>
+          <t>EP TASA 310</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
@@ -26214,7 +26214,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>E/P TASA 310</t>
+          <t>EP TASA 310</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -26281,7 +26281,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>E/P TASA 310</t>
+          <t>EP TASA 310</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -26348,7 +26348,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>E/P TASA 310</t>
+          <t>EP TASA 310</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
@@ -26415,7 +26415,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>E/P TASA 310</t>
+          <t>EP TASA 310</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
@@ -26482,7 +26482,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>E/P TASA 310</t>
+          <t>EP TASA 310</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -26553,7 +26553,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>E/P TASA 310</t>
+          <t>EP TASA 310</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
@@ -26624,7 +26624,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>E/P TASA 310</t>
+          <t>EP TASA 310</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
@@ -26695,7 +26695,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>E/P TASA 310</t>
+          <t>EP TASA 310</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
@@ -26766,7 +26766,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>E/P TASA 310</t>
+          <t>EP TASA 310</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
@@ -26837,7 +26837,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>E/P TASA 310</t>
+          <t>EP TASA 310</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
@@ -26908,7 +26908,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>E/P TASA 310</t>
+          <t>EP TASA 310</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
@@ -26975,7 +26975,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>E/P TASA 310</t>
+          <t>EP TASA 310</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
@@ -27042,7 +27042,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>E/P TASA 310</t>
+          <t>EP TASA 310</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
@@ -27113,7 +27113,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>E/P TASA 310</t>
+          <t>EP TASA 310</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
@@ -27184,7 +27184,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>E/P TASA 310</t>
+          <t>EP TASA 310</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
@@ -27255,7 +27255,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>E/P TASA 310</t>
+          <t>EP TASA 310</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
@@ -27322,7 +27322,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>E/P TASA 310</t>
+          <t>EP TASA 310</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
@@ -27393,7 +27393,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>E/P TASA 310</t>
+          <t>EP TASA 310</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
@@ -27460,7 +27460,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>E/P TASA 310</t>
+          <t>EP TASA 310</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
@@ -27527,7 +27527,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>E/P TASA 310</t>
+          <t>EP TASA 310</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
@@ -27594,7 +27594,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>E/P TASA 310</t>
+          <t>EP TASA 310</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
@@ -27661,7 +27661,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>E/P TASA 310</t>
+          <t>EP TASA 310</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
@@ -27728,7 +27728,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>E/P TASA 310</t>
+          <t>EP TASA 310</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
@@ -27799,7 +27799,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>E/P TASA 310</t>
+          <t>EP TASA 310</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
@@ -27870,7 +27870,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>E/P TASA 310</t>
+          <t>EP TASA 310</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
@@ -27937,7 +27937,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>E/P TASA 310</t>
+          <t>EP TASA 310</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
@@ -28004,7 +28004,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>E/P TASA 310</t>
+          <t>EP TASA 310</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
@@ -28071,7 +28071,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>E/P TASA 310</t>
+          <t>EP TASA 310</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
@@ -28138,7 +28138,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>E/P TASA 310</t>
+          <t>EP TASA 310</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
@@ -28205,7 +28205,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>E/P TASA 310</t>
+          <t>EP TASA 310</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
@@ -28272,7 +28272,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>E/P TASA 310</t>
+          <t>EP TASA 310</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
@@ -28339,7 +28339,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>E/P TASA 310</t>
+          <t>EP TASA 310</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
@@ -28406,7 +28406,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>E/P TASA 310</t>
+          <t>EP TASA 310</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
@@ -28473,7 +28473,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>E/P TASA 310</t>
+          <t>EP TASA 310</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
@@ -28540,7 +28540,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>E/P TASA 310</t>
+          <t>EP TASA 310</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
@@ -28607,7 +28607,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>E/P TASA 310</t>
+          <t>EP TASA 310</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
@@ -28674,7 +28674,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>E/P TASA 310</t>
+          <t>EP TASA 310</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
@@ -28741,7 +28741,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>E/P TASA 310</t>
+          <t>EP TASA 310</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
@@ -28808,7 +28808,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>E/P TASA 310</t>
+          <t>EP TASA 310</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
@@ -28875,7 +28875,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>E/P TASA 310</t>
+          <t>EP TASA 310</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
@@ -28942,7 +28942,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>E/P TASA 310</t>
+          <t>EP TASA 310</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
@@ -29009,7 +29009,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>E/P TASA 310</t>
+          <t>EP TASA 310</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -29076,7 +29076,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>E/P TASA 310</t>
+          <t>EP TASA 310</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -33756,7 +33756,7 @@
       <c r="T482" t="inlineStr"/>
       <c r="U482" t="inlineStr">
         <is>
-          <t>CASCO</t>
+          <t>ADITAMENTO</t>
         </is>
       </c>
     </row>
@@ -33823,7 +33823,7 @@
       <c r="T483" t="inlineStr"/>
       <c r="U483" t="inlineStr">
         <is>
-          <t>CASCO</t>
+          <t>ADITAMENTO</t>
         </is>
       </c>
     </row>
@@ -33890,7 +33890,7 @@
       <c r="T484" t="inlineStr"/>
       <c r="U484" t="inlineStr">
         <is>
-          <t>CASCO</t>
+          <t>ADITAMENTO</t>
         </is>
       </c>
     </row>
@@ -33957,7 +33957,7 @@
       <c r="T485" t="inlineStr"/>
       <c r="U485" t="inlineStr">
         <is>
-          <t>CASCO</t>
+          <t>ADITAMENTO</t>
         </is>
       </c>
     </row>
@@ -34024,7 +34024,7 @@
       <c r="T486" t="inlineStr"/>
       <c r="U486" t="inlineStr">
         <is>
-          <t>CASCO</t>
+          <t>ADITAMENTO</t>
         </is>
       </c>
     </row>
@@ -34091,7 +34091,7 @@
       <c r="T487" t="inlineStr"/>
       <c r="U487" t="inlineStr">
         <is>
-          <t>CASCO</t>
+          <t>ADITAMENTO</t>
         </is>
       </c>
     </row>
@@ -34158,7 +34158,7 @@
       <c r="T488" t="inlineStr"/>
       <c r="U488" t="inlineStr">
         <is>
-          <t>CASCO</t>
+          <t>ADITAMENTO</t>
         </is>
       </c>
     </row>
@@ -34225,7 +34225,7 @@
       <c r="T489" t="inlineStr"/>
       <c r="U489" t="inlineStr">
         <is>
-          <t>CASCO</t>
+          <t>ADITAMENTO</t>
         </is>
       </c>
     </row>
@@ -34292,7 +34292,7 @@
       <c r="T490" t="inlineStr"/>
       <c r="U490" t="inlineStr">
         <is>
-          <t>CASCO</t>
+          <t>ADITAMENTO</t>
         </is>
       </c>
     </row>
@@ -34359,7 +34359,7 @@
       <c r="T491" t="inlineStr"/>
       <c r="U491" t="inlineStr">
         <is>
-          <t>CASCO</t>
+          <t>ADITAMENTO</t>
         </is>
       </c>
     </row>
@@ -34426,7 +34426,7 @@
       <c r="T492" t="inlineStr"/>
       <c r="U492" t="inlineStr">
         <is>
-          <t>CASCO</t>
+          <t>ADITAMENTO</t>
         </is>
       </c>
     </row>
@@ -34493,7 +34493,7 @@
       <c r="T493" t="inlineStr"/>
       <c r="U493" t="inlineStr">
         <is>
-          <t>CASCO</t>
+          <t>ADITAMENTO</t>
         </is>
       </c>
     </row>
@@ -34560,7 +34560,7 @@
       <c r="T494" t="inlineStr"/>
       <c r="U494" t="inlineStr">
         <is>
-          <t>CASCO</t>
+          <t>ADITAMENTO</t>
         </is>
       </c>
     </row>
@@ -34627,7 +34627,7 @@
       <c r="T495" t="inlineStr"/>
       <c r="U495" t="inlineStr">
         <is>
-          <t>CASCO</t>
+          <t>ADITAMENTO</t>
         </is>
       </c>
     </row>

--- a/2025-1/UTI.xlsx
+++ b/2025-1/UTI.xlsx
@@ -72341,7 +72341,7 @@
       <c r="T963" t="inlineStr"/>
       <c r="U963" t="inlineStr">
         <is>
-          <t>CASCO</t>
+          <t>BE CASCO</t>
         </is>
       </c>
     </row>
@@ -72422,7 +72422,7 @@
       </c>
       <c r="U964" t="inlineStr">
         <is>
-          <t>CASCO</t>
+          <t>BE CASCO</t>
         </is>
       </c>
     </row>
@@ -72503,7 +72503,7 @@
       </c>
       <c r="U965" t="inlineStr">
         <is>
-          <t>CASCO</t>
+          <t>BE CASCO</t>
         </is>
       </c>
     </row>
@@ -72584,7 +72584,7 @@
       </c>
       <c r="U966" t="inlineStr">
         <is>
-          <t>CASCO</t>
+          <t>BE CASCO</t>
         </is>
       </c>
     </row>
@@ -73212,7 +73212,7 @@
       </c>
       <c r="U974" t="inlineStr">
         <is>
-          <t>CASCO</t>
+          <t>BE CASCO</t>
         </is>
       </c>
     </row>
@@ -73293,7 +73293,7 @@
       </c>
       <c r="U975" t="inlineStr">
         <is>
-          <t>CASCO</t>
+          <t>BE CASCO</t>
         </is>
       </c>
     </row>
@@ -73372,7 +73372,7 @@
       <c r="T976" t="inlineStr"/>
       <c r="U976" t="inlineStr">
         <is>
-          <t>CASCO</t>
+          <t>BE CASCO</t>
         </is>
       </c>
     </row>
@@ -74535,7 +74535,7 @@
       <c r="T991" t="inlineStr"/>
       <c r="U991" t="inlineStr">
         <is>
-          <t>CASCO</t>
+          <t>BE CASCO</t>
         </is>
       </c>
     </row>
@@ -74616,7 +74616,7 @@
       </c>
       <c r="U992" t="inlineStr">
         <is>
-          <t>CASCO</t>
+          <t>BE CASCO</t>
         </is>
       </c>
     </row>
@@ -74693,7 +74693,7 @@
       <c r="T993" t="inlineStr"/>
       <c r="U993" t="inlineStr">
         <is>
-          <t>CASCO</t>
+          <t>BE CASCO</t>
         </is>
       </c>
     </row>
@@ -74774,7 +74774,7 @@
       </c>
       <c r="U994" t="inlineStr">
         <is>
-          <t>CASCO</t>
+          <t>BE CASCO</t>
         </is>
       </c>
     </row>
@@ -74851,7 +74851,7 @@
       <c r="T995" t="inlineStr"/>
       <c r="U995" t="inlineStr">
         <is>
-          <t>CASCO</t>
+          <t>BE CASCO</t>
         </is>
       </c>
     </row>
@@ -74928,7 +74928,7 @@
       <c r="T996" t="inlineStr"/>
       <c r="U996" t="inlineStr">
         <is>
-          <t>CASCO</t>
+          <t>BE CASCO</t>
         </is>
       </c>
     </row>
@@ -75005,7 +75005,7 @@
       <c r="T997" t="inlineStr"/>
       <c r="U997" t="inlineStr">
         <is>
-          <t>CASCO</t>
+          <t>BE CASCO</t>
         </is>
       </c>
     </row>
@@ -75082,7 +75082,7 @@
       <c r="T998" t="inlineStr"/>
       <c r="U998" t="inlineStr">
         <is>
-          <t>CASCO</t>
+          <t>BE CASCO</t>
         </is>
       </c>
     </row>
@@ -75931,7 +75931,7 @@
       </c>
       <c r="U1009" t="inlineStr">
         <is>
-          <t>CASCO</t>
+          <t>BE CASCO</t>
         </is>
       </c>
     </row>
@@ -80347,7 +80347,7 @@
       <c r="T1069" t="inlineStr"/>
       <c r="U1069" t="inlineStr">
         <is>
-          <t>BE CASCO</t>
+          <t>CASCO</t>
         </is>
       </c>
     </row>
@@ -80428,7 +80428,7 @@
       </c>
       <c r="U1070" t="inlineStr">
         <is>
-          <t>BE CASCO</t>
+          <t>CASCO</t>
         </is>
       </c>
     </row>
@@ -80509,7 +80509,7 @@
       </c>
       <c r="U1071" t="inlineStr">
         <is>
-          <t>BE CASCO</t>
+          <t>CASCO</t>
         </is>
       </c>
     </row>
@@ -80588,7 +80588,7 @@
       <c r="T1072" t="inlineStr"/>
       <c r="U1072" t="inlineStr">
         <is>
-          <t>BE CASCO</t>
+          <t>CASCO</t>
         </is>
       </c>
     </row>
@@ -80669,7 +80669,7 @@
       </c>
       <c r="U1073" t="inlineStr">
         <is>
-          <t>BE CASCO</t>
+          <t>CASCO</t>
         </is>
       </c>
     </row>
@@ -80746,7 +80746,7 @@
       <c r="T1074" t="inlineStr"/>
       <c r="U1074" t="inlineStr">
         <is>
-          <t>BE CASCO</t>
+          <t>CASCO</t>
         </is>
       </c>
     </row>
@@ -80825,7 +80825,7 @@
       <c r="T1075" t="inlineStr"/>
       <c r="U1075" t="inlineStr">
         <is>
-          <t>BE CASCO</t>
+          <t>CASCO</t>
         </is>
       </c>
     </row>
@@ -82446,7 +82446,7 @@
       <c r="T1096" t="inlineStr"/>
       <c r="U1096" t="inlineStr">
         <is>
-          <t>BE CASCO</t>
+          <t>CASCO</t>
         </is>
       </c>
     </row>
@@ -82523,7 +82523,7 @@
       <c r="T1097" t="inlineStr"/>
       <c r="U1097" t="inlineStr">
         <is>
-          <t>BE CASCO</t>
+          <t>CASCO</t>
         </is>
       </c>
     </row>
@@ -82604,7 +82604,7 @@
       </c>
       <c r="U1098" t="inlineStr">
         <is>
-          <t>BE CASCO</t>
+          <t>CASCO</t>
         </is>
       </c>
     </row>
@@ -83757,7 +83757,7 @@
       <c r="T1113" t="inlineStr"/>
       <c r="U1113" t="inlineStr">
         <is>
-          <t>BE CASCO</t>
+          <t>CASCO</t>
         </is>
       </c>
     </row>
@@ -83834,7 +83834,7 @@
       <c r="T1114" t="inlineStr"/>
       <c r="U1114" t="inlineStr">
         <is>
-          <t>BE CASCO</t>
+          <t>CASCO</t>
         </is>
       </c>
     </row>
@@ -83911,7 +83911,7 @@
       <c r="T1115" t="inlineStr"/>
       <c r="U1115" t="inlineStr">
         <is>
-          <t>BE CASCO</t>
+          <t>CASCO</t>
         </is>
       </c>
     </row>
@@ -84201,7 +84201,7 @@
       <c r="T1119" t="inlineStr"/>
       <c r="U1119" t="inlineStr">
         <is>
-          <t>BE CASCO</t>
+          <t>CASCO</t>
         </is>
       </c>
     </row>
@@ -84278,7 +84278,7 @@
       <c r="T1120" t="inlineStr"/>
       <c r="U1120" t="inlineStr">
         <is>
-          <t>BE CASCO</t>
+          <t>CASCO</t>
         </is>
       </c>
     </row>
@@ -84355,7 +84355,7 @@
       <c r="T1121" t="inlineStr"/>
       <c r="U1121" t="inlineStr">
         <is>
-          <t>BE CASCO</t>
+          <t>CASCO</t>
         </is>
       </c>
     </row>

--- a/2025-1/UTI.xlsx
+++ b/2025-1/UTI.xlsx
@@ -80347,7 +80347,7 @@
       <c r="T1069" t="inlineStr"/>
       <c r="U1069" t="inlineStr">
         <is>
-          <t>CASCO</t>
+          <t>BE CASCO</t>
         </is>
       </c>
     </row>
@@ -80428,7 +80428,7 @@
       </c>
       <c r="U1070" t="inlineStr">
         <is>
-          <t>CASCO</t>
+          <t>BE CASCO</t>
         </is>
       </c>
     </row>
@@ -80509,7 +80509,7 @@
       </c>
       <c r="U1071" t="inlineStr">
         <is>
-          <t>CASCO</t>
+          <t>BE CASCO</t>
         </is>
       </c>
     </row>
@@ -80588,7 +80588,7 @@
       <c r="T1072" t="inlineStr"/>
       <c r="U1072" t="inlineStr">
         <is>
-          <t>CASCO</t>
+          <t>BE CASCO</t>
         </is>
       </c>
     </row>
@@ -80669,7 +80669,7 @@
       </c>
       <c r="U1073" t="inlineStr">
         <is>
-          <t>CASCO</t>
+          <t>BE CASCO</t>
         </is>
       </c>
     </row>
@@ -80746,7 +80746,7 @@
       <c r="T1074" t="inlineStr"/>
       <c r="U1074" t="inlineStr">
         <is>
-          <t>CASCO</t>
+          <t>BE CASCO</t>
         </is>
       </c>
     </row>
@@ -80825,7 +80825,7 @@
       <c r="T1075" t="inlineStr"/>
       <c r="U1075" t="inlineStr">
         <is>
-          <t>CASCO</t>
+          <t>BE CASCO</t>
         </is>
       </c>
     </row>
@@ -82446,7 +82446,7 @@
       <c r="T1096" t="inlineStr"/>
       <c r="U1096" t="inlineStr">
         <is>
-          <t>CASCO</t>
+          <t>BE CASCO</t>
         </is>
       </c>
     </row>
@@ -82523,7 +82523,7 @@
       <c r="T1097" t="inlineStr"/>
       <c r="U1097" t="inlineStr">
         <is>
-          <t>CASCO</t>
+          <t>BE CASCO</t>
         </is>
       </c>
     </row>
@@ -82604,7 +82604,7 @@
       </c>
       <c r="U1098" t="inlineStr">
         <is>
-          <t>CASCO</t>
+          <t>BE CASCO</t>
         </is>
       </c>
     </row>
@@ -83757,7 +83757,7 @@
       <c r="T1113" t="inlineStr"/>
       <c r="U1113" t="inlineStr">
         <is>
-          <t>CASCO</t>
+          <t>BE CASCO</t>
         </is>
       </c>
     </row>
@@ -83834,7 +83834,7 @@
       <c r="T1114" t="inlineStr"/>
       <c r="U1114" t="inlineStr">
         <is>
-          <t>CASCO</t>
+          <t>BE CASCO</t>
         </is>
       </c>
     </row>
@@ -83911,7 +83911,7 @@
       <c r="T1115" t="inlineStr"/>
       <c r="U1115" t="inlineStr">
         <is>
-          <t>CASCO</t>
+          <t>BE CASCO</t>
         </is>
       </c>
     </row>
@@ -84201,7 +84201,7 @@
       <c r="T1119" t="inlineStr"/>
       <c r="U1119" t="inlineStr">
         <is>
-          <t>CASCO</t>
+          <t>BE CASCO</t>
         </is>
       </c>
     </row>
@@ -84278,7 +84278,7 @@
       <c r="T1120" t="inlineStr"/>
       <c r="U1120" t="inlineStr">
         <is>
-          <t>CASCO</t>
+          <t>BE CASCO</t>
         </is>
       </c>
     </row>
@@ -84355,7 +84355,7 @@
       <c r="T1121" t="inlineStr"/>
       <c r="U1121" t="inlineStr">
         <is>
-          <t>CASCO</t>
+          <t>BE CASCO</t>
         </is>
       </c>
     </row>
